--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3047.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3047.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3047.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3047.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>15</v>
+        <v>0.5564258098602295</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>3.923957824707031</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.129853248596191</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.459057688713074</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>0.8451275825500488</v>
       </c>
     </row>
   </sheetData>
